--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Belajar Coding\nilaiPaket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C95D6B9-8040-43C0-A6F8-74FA180EDBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAEB932-B234-43B0-8E02-83D159A6E836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="310">
   <si>
     <t>NIS</t>
   </si>
@@ -952,6 +952,15 @@
   </si>
   <si>
     <t>SOSIO</t>
+  </si>
+  <si>
+    <t>RANK</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1061,7 +1070,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1073,7 +1083,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1417,7 +1427,7 @@
   <dimension ref="A1:Q292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,18 +1461,20 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="M4" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
@@ -1489,8 +1501,12 @@
       <c r="K5" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="M5" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1526,6 +1542,18 @@
       <c r="K6" s="2">
         <v>76</v>
       </c>
+      <c r="M6" s="3">
+        <v>268</v>
+      </c>
+      <c r="N6" s="3">
+        <v>214</v>
+      </c>
+      <c r="O6">
+        <f>COUNTA(B6:B292)</f>
+        <v>287</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1561,6 +1589,14 @@
       <c r="K7" s="2">
         <v>80.5</v>
       </c>
+      <c r="M7" s="3">
+        <v>120</v>
+      </c>
+      <c r="N7" s="3">
+        <v>145</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1596,6 +1632,14 @@
       <c r="K8" s="2">
         <v>79.5</v>
       </c>
+      <c r="M8" s="3">
+        <v>2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>82</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1631,6 +1675,14 @@
       <c r="K9" s="2">
         <v>74</v>
       </c>
+      <c r="M9" s="3">
+        <v>228</v>
+      </c>
+      <c r="N9" s="3">
+        <v>233</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1666,6 +1718,14 @@
       <c r="K10" s="2">
         <v>81.5</v>
       </c>
+      <c r="M10" s="3">
+        <v>115</v>
+      </c>
+      <c r="N10" s="3">
+        <v>121</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1701,6 +1761,14 @@
       <c r="K11" s="2">
         <v>84.5</v>
       </c>
+      <c r="M11" s="3">
+        <v>24</v>
+      </c>
+      <c r="N11" s="3">
+        <v>64</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1736,6 +1804,14 @@
       <c r="K12" s="2">
         <v>83</v>
       </c>
+      <c r="M12" s="3">
+        <v>76</v>
+      </c>
+      <c r="N12" s="3">
+        <v>133</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1771,6 +1847,14 @@
       <c r="K13" s="2">
         <v>71</v>
       </c>
+      <c r="M13" s="3">
+        <v>72</v>
+      </c>
+      <c r="N13" s="3">
+        <v>207</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1806,6 +1890,14 @@
       <c r="K14" s="2">
         <v>90</v>
       </c>
+      <c r="M14" s="3">
+        <v>34</v>
+      </c>
+      <c r="N14" s="3">
+        <v>24</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1841,6 +1933,14 @@
       <c r="K15" s="2">
         <v>83</v>
       </c>
+      <c r="M15" s="3">
+        <v>86</v>
+      </c>
+      <c r="N15" s="3">
+        <v>73</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1876,8 +1976,16 @@
       <c r="K16" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16" s="3">
+        <v>64</v>
+      </c>
+      <c r="N16" s="3">
+        <v>179</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11401</v>
       </c>
@@ -1911,8 +2019,16 @@
       <c r="K17" s="2">
         <v>66.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" s="3">
+        <v>212</v>
+      </c>
+      <c r="N17" s="3">
+        <v>271</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11409</v>
       </c>
@@ -1946,8 +2062,16 @@
       <c r="K18" s="2">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>17</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11414</v>
       </c>
@@ -1981,8 +2105,16 @@
       <c r="K19" s="2">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" s="3">
+        <v>181</v>
+      </c>
+      <c r="N19" s="3">
+        <v>237</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11429</v>
       </c>
@@ -2016,8 +2148,16 @@
       <c r="K20" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M20" s="3">
+        <v>14</v>
+      </c>
+      <c r="N20" s="3">
+        <v>186</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11434</v>
       </c>
@@ -2051,8 +2191,16 @@
       <c r="K21" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M21" s="3">
+        <v>163</v>
+      </c>
+      <c r="N21" s="3">
+        <v>199</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11448</v>
       </c>
@@ -2086,8 +2234,16 @@
       <c r="K22" s="2">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M22" s="3">
+        <v>157</v>
+      </c>
+      <c r="N22" s="3">
+        <v>246</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11450</v>
       </c>
@@ -2121,8 +2277,16 @@
       <c r="K23" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M23" s="3">
+        <v>107</v>
+      </c>
+      <c r="N23" s="3">
+        <v>121</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11460</v>
       </c>
@@ -2156,8 +2320,16 @@
       <c r="K24" s="2">
         <v>71.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24" s="3">
+        <v>265</v>
+      </c>
+      <c r="N24" s="3">
+        <v>246</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11468</v>
       </c>
@@ -2191,8 +2363,16 @@
       <c r="K25" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M25" s="3">
+        <v>194</v>
+      </c>
+      <c r="N25" s="3">
+        <v>101</v>
+      </c>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11473</v>
       </c>
@@ -2226,8 +2406,16 @@
       <c r="K26" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M26" s="3">
+        <v>31</v>
+      </c>
+      <c r="N26" s="3">
+        <v>53</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>11480</v>
       </c>
@@ -2261,8 +2449,16 @@
       <c r="K27" s="2">
         <v>79.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M27" s="3">
+        <v>181</v>
+      </c>
+      <c r="N27" s="3">
+        <v>154</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11485</v>
       </c>
@@ -2296,8 +2492,16 @@
       <c r="K28" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M28" s="3">
+        <v>174</v>
+      </c>
+      <c r="N28" s="3">
+        <v>121</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11494</v>
       </c>
@@ -2331,8 +2535,16 @@
       <c r="K29" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M29" s="3">
+        <v>186</v>
+      </c>
+      <c r="N29" s="3">
+        <v>223</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11508</v>
       </c>
@@ -2366,8 +2578,16 @@
       <c r="K30" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M30" s="3">
+        <v>270</v>
+      </c>
+      <c r="N30" s="3">
+        <v>281</v>
+      </c>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11514</v>
       </c>
@@ -2401,8 +2621,16 @@
       <c r="K31" s="2">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M31" s="3">
+        <v>244</v>
+      </c>
+      <c r="N31" s="3">
+        <v>228</v>
+      </c>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11527</v>
       </c>
@@ -2436,8 +2664,16 @@
       <c r="K32" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M32" s="3">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
+        <v>135</v>
+      </c>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11530</v>
       </c>
@@ -2471,8 +2707,16 @@
       <c r="K33" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M33" s="3">
+        <v>143</v>
+      </c>
+      <c r="N33" s="3">
+        <v>101</v>
+      </c>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11535</v>
       </c>
@@ -2506,8 +2750,16 @@
       <c r="K34" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M34" s="3">
+        <v>280</v>
+      </c>
+      <c r="N34" s="3">
+        <v>251</v>
+      </c>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>11546</v>
       </c>
@@ -2541,8 +2793,16 @@
       <c r="K35" s="2">
         <v>72.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M35" s="3">
+        <v>212</v>
+      </c>
+      <c r="N35" s="3">
+        <v>251</v>
+      </c>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11554</v>
       </c>
@@ -2576,8 +2836,16 @@
       <c r="K36" s="2">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M36" s="3">
+        <v>120</v>
+      </c>
+      <c r="N36" s="3">
+        <v>172</v>
+      </c>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11560</v>
       </c>
@@ -2611,8 +2879,16 @@
       <c r="K37" s="2">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M37" s="3">
+        <v>11</v>
+      </c>
+      <c r="N37" s="3">
+        <v>91</v>
+      </c>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11563</v>
       </c>
@@ -2646,8 +2922,16 @@
       <c r="K38" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M38" s="3">
+        <v>284</v>
+      </c>
+      <c r="N38" s="3">
+        <v>286</v>
+      </c>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11573</v>
       </c>
@@ -2681,8 +2965,16 @@
       <c r="K39" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M39" s="3">
+        <v>205</v>
+      </c>
+      <c r="N39" s="3">
+        <v>216</v>
+      </c>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>11578</v>
       </c>
@@ -2716,8 +3008,16 @@
       <c r="K40" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M40" s="3">
+        <v>198</v>
+      </c>
+      <c r="N40" s="3">
+        <v>251</v>
+      </c>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>11589</v>
       </c>
@@ -2751,8 +3051,16 @@
       <c r="K41" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M41" s="3">
+        <v>260</v>
+      </c>
+      <c r="N41" s="3">
+        <v>282</v>
+      </c>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>11306</v>
       </c>
@@ -2786,8 +3094,16 @@
       <c r="K42" s="2">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M42" s="3">
+        <v>221</v>
+      </c>
+      <c r="N42" s="3">
+        <v>211</v>
+      </c>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>11310</v>
       </c>
@@ -2821,8 +3137,16 @@
       <c r="K43" s="2">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M43" s="3">
+        <v>59</v>
+      </c>
+      <c r="N43" s="3">
+        <v>53</v>
+      </c>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>11315</v>
       </c>
@@ -2856,8 +3180,16 @@
       <c r="K44" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M44" s="3">
+        <v>107</v>
+      </c>
+      <c r="N44" s="3">
+        <v>70</v>
+      </c>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11325</v>
       </c>
@@ -2891,8 +3223,16 @@
       <c r="K45" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M45" s="3">
+        <v>198</v>
+      </c>
+      <c r="N45" s="3">
+        <v>228</v>
+      </c>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>11332</v>
       </c>
@@ -2926,8 +3266,16 @@
       <c r="K46" s="2">
         <v>80.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M46" s="3">
+        <v>128</v>
+      </c>
+      <c r="N46" s="3">
+        <v>97</v>
+      </c>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11336</v>
       </c>
@@ -2961,8 +3309,16 @@
       <c r="K47" s="2">
         <v>79.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M47" s="3">
+        <v>215</v>
+      </c>
+      <c r="N47" s="3">
+        <v>182</v>
+      </c>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11351</v>
       </c>
@@ -2996,8 +3352,16 @@
       <c r="K48" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M48" s="3">
+        <v>26</v>
+      </c>
+      <c r="N48" s="3">
+        <v>24</v>
+      </c>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>11354</v>
       </c>
@@ -3031,8 +3395,16 @@
       <c r="K49" s="2">
         <v>80.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M49" s="3">
+        <v>43</v>
+      </c>
+      <c r="N49" s="3">
+        <v>73</v>
+      </c>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>11366</v>
       </c>
@@ -3066,8 +3438,16 @@
       <c r="K50" s="2">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M50" s="3">
+        <v>224</v>
+      </c>
+      <c r="N50" s="3">
+        <v>189</v>
+      </c>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>11375</v>
       </c>
@@ -3101,8 +3481,16 @@
       <c r="K51" s="2">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M51" s="3">
+        <v>230</v>
+      </c>
+      <c r="N51" s="3">
+        <v>192</v>
+      </c>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11376</v>
       </c>
@@ -3136,8 +3524,16 @@
       <c r="K52" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M52" s="3">
+        <v>12</v>
+      </c>
+      <c r="N52" s="3">
+        <v>37</v>
+      </c>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11381</v>
       </c>
@@ -3171,8 +3567,16 @@
       <c r="K53" s="2">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M53" s="3">
+        <v>198</v>
+      </c>
+      <c r="N53" s="3">
+        <v>135</v>
+      </c>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>11383</v>
       </c>
@@ -3206,8 +3610,16 @@
       <c r="K54" s="2">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M54" s="3">
+        <v>56</v>
+      </c>
+      <c r="N54" s="3">
+        <v>186</v>
+      </c>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>11402</v>
       </c>
@@ -3241,8 +3653,16 @@
       <c r="K55" s="2">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M55" s="3">
+        <v>245</v>
+      </c>
+      <c r="N55" s="3">
+        <v>154</v>
+      </c>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>11410</v>
       </c>
@@ -3276,8 +3696,16 @@
       <c r="K56" s="2">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M56" s="3">
+        <v>48</v>
+      </c>
+      <c r="N56" s="3">
+        <v>97</v>
+      </c>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>11420</v>
       </c>
@@ -3311,8 +3739,16 @@
       <c r="K57" s="2">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M57" s="3">
+        <v>82</v>
+      </c>
+      <c r="N57" s="3">
+        <v>107</v>
+      </c>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>11435</v>
       </c>
@@ -3346,8 +3782,16 @@
       <c r="K58" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M58" s="3">
+        <v>181</v>
+      </c>
+      <c r="N58" s="3">
+        <v>70</v>
+      </c>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>11443</v>
       </c>
@@ -3381,8 +3825,16 @@
       <c r="K59" s="2">
         <v>73.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M59" s="3">
+        <v>205</v>
+      </c>
+      <c r="N59" s="3">
+        <v>231</v>
+      </c>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11458</v>
       </c>
@@ -3416,8 +3868,16 @@
       <c r="K60" s="2">
         <v>70.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M60" s="3">
+        <v>239</v>
+      </c>
+      <c r="N60" s="3">
+        <v>269</v>
+      </c>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11465</v>
       </c>
@@ -3451,8 +3911,16 @@
       <c r="K61" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M61" s="3">
+        <v>7</v>
+      </c>
+      <c r="N61" s="3">
+        <v>114</v>
+      </c>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11469</v>
       </c>
@@ -3486,8 +3954,16 @@
       <c r="K62" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M62" s="3">
+        <v>256</v>
+      </c>
+      <c r="N62" s="3">
+        <v>226</v>
+      </c>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11486</v>
       </c>
@@ -3521,8 +3997,16 @@
       <c r="K63" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M63" s="3">
+        <v>255</v>
+      </c>
+      <c r="N63" s="3">
+        <v>251</v>
+      </c>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>11495</v>
       </c>
@@ -3556,8 +4040,16 @@
       <c r="K64" s="2">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M64" s="3">
+        <v>245</v>
+      </c>
+      <c r="N64" s="3">
+        <v>202</v>
+      </c>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>11504</v>
       </c>
@@ -3591,8 +4083,16 @@
       <c r="K65" s="2">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M65" s="3">
+        <v>120</v>
+      </c>
+      <c r="N65" s="3">
+        <v>130</v>
+      </c>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>11510</v>
       </c>
@@ -3626,8 +4126,16 @@
       <c r="K66" s="2">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M66" s="3">
+        <v>135</v>
+      </c>
+      <c r="N66" s="3">
+        <v>39</v>
+      </c>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>11511</v>
       </c>
@@ -3661,8 +4169,16 @@
       <c r="K67" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M67" s="3">
+        <v>82</v>
+      </c>
+      <c r="N67" s="3">
+        <v>26</v>
+      </c>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>11515</v>
       </c>
@@ -3696,8 +4212,16 @@
       <c r="K68" s="2">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M68" s="3">
+        <v>3</v>
+      </c>
+      <c r="N68" s="3">
+        <v>14</v>
+      </c>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>11531</v>
       </c>
@@ -3731,8 +4255,16 @@
       <c r="K69" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M69" s="3">
+        <v>130</v>
+      </c>
+      <c r="N69" s="3">
+        <v>64</v>
+      </c>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>11536</v>
       </c>
@@ -3766,8 +4298,16 @@
       <c r="K70" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M70" s="3">
+        <v>149</v>
+      </c>
+      <c r="N70" s="3">
+        <v>207</v>
+      </c>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>11547</v>
       </c>
@@ -3801,8 +4341,16 @@
       <c r="K71" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M71" s="3">
+        <v>278</v>
+      </c>
+      <c r="N71" s="3">
+        <v>272</v>
+      </c>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>11555</v>
       </c>
@@ -3836,8 +4384,16 @@
       <c r="K72" s="2">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M72" s="3">
+        <v>212</v>
+      </c>
+      <c r="N72" s="3">
+        <v>214</v>
+      </c>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>11564</v>
       </c>
@@ -3871,8 +4427,16 @@
       <c r="K73" s="2">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M73" s="3">
+        <v>135</v>
+      </c>
+      <c r="N73" s="3">
+        <v>64</v>
+      </c>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>11568</v>
       </c>
@@ -3906,8 +4470,16 @@
       <c r="K74" s="2">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M74" s="3">
+        <v>147</v>
+      </c>
+      <c r="N74" s="3">
+        <v>159</v>
+      </c>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>11574</v>
       </c>
@@ -3941,8 +4513,16 @@
       <c r="K75" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M75" s="3">
+        <v>15</v>
+      </c>
+      <c r="N75" s="3">
+        <v>48</v>
+      </c>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11583</v>
       </c>
@@ -3976,8 +4556,16 @@
       <c r="K76" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M76" s="3">
+        <v>90</v>
+      </c>
+      <c r="N76" s="3">
+        <v>62</v>
+      </c>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11590</v>
       </c>
@@ -4011,8 +4599,16 @@
       <c r="K77" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M77" s="3">
+        <v>18</v>
+      </c>
+      <c r="N77" s="3">
+        <v>8</v>
+      </c>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>11305</v>
       </c>
@@ -4046,8 +4642,16 @@
       <c r="K78" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M78" s="3">
+        <v>268</v>
+      </c>
+      <c r="N78" s="3">
+        <v>104</v>
+      </c>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>11307</v>
       </c>
@@ -4081,8 +4685,16 @@
       <c r="K79" s="2">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M79" s="3">
+        <v>127</v>
+      </c>
+      <c r="N79" s="3">
+        <v>176</v>
+      </c>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>11326</v>
       </c>
@@ -4116,8 +4728,16 @@
       <c r="K80" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M80" s="3">
+        <v>91</v>
+      </c>
+      <c r="N80" s="3">
+        <v>105</v>
+      </c>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>11338</v>
       </c>
@@ -4151,8 +4771,16 @@
       <c r="K81" s="2">
         <v>71.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M81" s="3">
+        <v>274</v>
+      </c>
+      <c r="N81" s="3">
+        <v>268</v>
+      </c>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>11339</v>
       </c>
@@ -4186,8 +4814,16 @@
       <c r="K82" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M82" s="3">
+        <v>85</v>
+      </c>
+      <c r="N82" s="3">
+        <v>63</v>
+      </c>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>11347</v>
       </c>
@@ -4221,8 +4857,16 @@
       <c r="K83" s="2">
         <v>67.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M83" s="3">
+        <v>282</v>
+      </c>
+      <c r="N83" s="3">
+        <v>284</v>
+      </c>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>11352</v>
       </c>
@@ -4256,8 +4900,16 @@
       <c r="K84" s="2">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M84" s="3">
+        <v>29</v>
+      </c>
+      <c r="N84" s="3">
+        <v>22</v>
+      </c>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>11355</v>
       </c>
@@ -4291,8 +4943,16 @@
       <c r="K85" s="2">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M85" s="3">
+        <v>258</v>
+      </c>
+      <c r="N85" s="3">
+        <v>201</v>
+      </c>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>11363</v>
       </c>
@@ -4326,8 +4986,16 @@
       <c r="K86" s="2">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M86" s="3">
+        <v>52</v>
+      </c>
+      <c r="N86" s="3">
+        <v>57</v>
+      </c>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>11367</v>
       </c>
@@ -4361,8 +5029,16 @@
       <c r="K87" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M87" s="3">
+        <v>42</v>
+      </c>
+      <c r="N87" s="3">
+        <v>120</v>
+      </c>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>11373</v>
       </c>
@@ -4396,8 +5072,16 @@
       <c r="K88" s="2">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M88" s="3">
+        <v>55</v>
+      </c>
+      <c r="N88" s="3">
+        <v>166</v>
+      </c>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>11378</v>
       </c>
@@ -4431,8 +5115,16 @@
       <c r="K89" s="2">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M89" s="3">
+        <v>9</v>
+      </c>
+      <c r="N89" s="3">
+        <v>57</v>
+      </c>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>11384</v>
       </c>
@@ -4466,8 +5158,16 @@
       <c r="K90" s="2">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M90" s="3">
+        <v>184</v>
+      </c>
+      <c r="N90" s="3">
+        <v>188</v>
+      </c>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>11385</v>
       </c>
@@ -4501,8 +5201,16 @@
       <c r="K91" s="2">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M91" s="3">
+        <v>101</v>
+      </c>
+      <c r="N91" s="3">
+        <v>153</v>
+      </c>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>11393</v>
       </c>
@@ -4536,8 +5244,16 @@
       <c r="K92" s="2">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M92" s="3">
+        <v>4</v>
+      </c>
+      <c r="N92" s="3">
+        <v>5</v>
+      </c>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>11403</v>
       </c>
@@ -4571,8 +5287,16 @@
       <c r="K93" s="2">
         <v>80.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M93" s="3">
+        <v>21</v>
+      </c>
+      <c r="N93" s="3">
+        <v>47</v>
+      </c>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>11412</v>
       </c>
@@ -4606,8 +5330,16 @@
       <c r="K94" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M94" s="3">
+        <v>266</v>
+      </c>
+      <c r="N94" s="3">
+        <v>280</v>
+      </c>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>11415</v>
       </c>
@@ -4641,8 +5373,16 @@
       <c r="K95" s="2">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M95" s="3">
+        <v>23</v>
+      </c>
+      <c r="N95" s="3">
+        <v>206</v>
+      </c>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>11418</v>
       </c>
@@ -4676,8 +5416,16 @@
       <c r="K96" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M96" s="3">
+        <v>191</v>
+      </c>
+      <c r="N96" s="3">
+        <v>179</v>
+      </c>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>11422</v>
       </c>
@@ -4711,8 +5459,16 @@
       <c r="K97" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M97" s="3">
+        <v>115</v>
+      </c>
+      <c r="N97" s="3">
+        <v>132</v>
+      </c>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>11436</v>
       </c>
@@ -4746,8 +5502,16 @@
       <c r="K98" s="2">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M98" s="3">
+        <v>155</v>
+      </c>
+      <c r="N98" s="3">
+        <v>239</v>
+      </c>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>11451</v>
       </c>
@@ -4781,8 +5545,16 @@
       <c r="K99" s="2">
         <v>71.5</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M99" s="3">
+        <v>38</v>
+      </c>
+      <c r="N99" s="3">
+        <v>218</v>
+      </c>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>11464</v>
       </c>
@@ -4816,8 +5588,16 @@
       <c r="K100" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M100" s="3">
+        <v>103</v>
+      </c>
+      <c r="N100" s="3">
+        <v>177</v>
+      </c>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>11470</v>
       </c>
@@ -4851,8 +5631,16 @@
       <c r="K101" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M101" s="3">
+        <v>231</v>
+      </c>
+      <c r="N101" s="3">
+        <v>191</v>
+      </c>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>11476</v>
       </c>
@@ -4886,8 +5674,16 @@
       <c r="K102" s="2">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M102" s="3">
+        <v>17</v>
+      </c>
+      <c r="N102" s="3">
+        <v>70</v>
+      </c>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>11479</v>
       </c>
@@ -4921,8 +5717,16 @@
       <c r="K103" s="2">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M103" s="3">
+        <v>239</v>
+      </c>
+      <c r="N103" s="3">
+        <v>275</v>
+      </c>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>11516</v>
       </c>
@@ -4956,8 +5760,16 @@
       <c r="K104" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M104" s="3">
+        <v>142</v>
+      </c>
+      <c r="N104" s="3">
+        <v>245</v>
+      </c>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>11523</v>
       </c>
@@ -4991,8 +5803,16 @@
       <c r="K105" s="2">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M105" s="3">
+        <v>221</v>
+      </c>
+      <c r="N105" s="3">
+        <v>227</v>
+      </c>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>11528</v>
       </c>
@@ -5026,8 +5846,16 @@
       <c r="K106" s="2">
         <v>80.5</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M106" s="3">
+        <v>47</v>
+      </c>
+      <c r="N106" s="3">
+        <v>81</v>
+      </c>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>11532</v>
       </c>
@@ -5061,8 +5889,16 @@
       <c r="K107" s="2">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M107" s="3">
+        <v>156</v>
+      </c>
+      <c r="N107" s="3">
+        <v>145</v>
+      </c>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>11537</v>
       </c>
@@ -5096,8 +5932,16 @@
       <c r="K108" s="2">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M108" s="3">
+        <v>283</v>
+      </c>
+      <c r="N108" s="3">
+        <v>223</v>
+      </c>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>11548</v>
       </c>
@@ -5131,8 +5975,16 @@
       <c r="K109" s="2">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M109" s="3">
+        <v>185</v>
+      </c>
+      <c r="N109" s="3">
+        <v>228</v>
+      </c>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>11557</v>
       </c>
@@ -5166,8 +6018,16 @@
       <c r="K110" s="2">
         <v>61.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M110" s="3">
+        <v>111</v>
+      </c>
+      <c r="N110" s="3">
+        <v>240</v>
+      </c>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>11565</v>
       </c>
@@ -5201,8 +6061,16 @@
       <c r="K111" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M111" s="3">
+        <v>29</v>
+      </c>
+      <c r="N111" s="3">
+        <v>145</v>
+      </c>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>11569</v>
       </c>
@@ -5236,8 +6104,16 @@
       <c r="K112" s="2">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M112" s="3">
+        <v>94</v>
+      </c>
+      <c r="N112" s="3">
+        <v>48</v>
+      </c>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>11575</v>
       </c>
@@ -5271,8 +6147,16 @@
       <c r="K113" s="2">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M113" s="3">
+        <v>13</v>
+      </c>
+      <c r="N113" s="3">
+        <v>39</v>
+      </c>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>11308</v>
       </c>
@@ -5306,8 +6190,16 @@
       <c r="K114" s="2">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M114" s="3">
+        <v>97</v>
+      </c>
+      <c r="N114" s="3">
+        <v>145</v>
+      </c>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>11309</v>
       </c>
@@ -5341,8 +6233,16 @@
       <c r="K115" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M115" s="3">
+        <v>211</v>
+      </c>
+      <c r="N115" s="3">
+        <v>91</v>
+      </c>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>11311</v>
       </c>
@@ -5376,8 +6276,16 @@
       <c r="K116" s="2">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M116" s="3">
+        <v>236</v>
+      </c>
+      <c r="N116" s="3">
+        <v>127</v>
+      </c>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>11321</v>
       </c>
@@ -5411,8 +6319,16 @@
       <c r="K117" s="2">
         <v>88</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M117" s="3">
+        <v>198</v>
+      </c>
+      <c r="N117" s="3">
+        <v>48</v>
+      </c>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>11327</v>
       </c>
@@ -5446,8 +6362,16 @@
       <c r="K118" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M118" s="3">
+        <v>119</v>
+      </c>
+      <c r="N118" s="3">
+        <v>39</v>
+      </c>
+      <c r="P118" s="5"/>
+      <c r="Q118" s="5"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>11350</v>
       </c>
@@ -5481,8 +6405,16 @@
       <c r="K119" s="2">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M119" s="3">
+        <v>71</v>
+      </c>
+      <c r="N119" s="3">
+        <v>20</v>
+      </c>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>11356</v>
       </c>
@@ -5516,8 +6448,16 @@
       <c r="K120" s="2">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M120" s="3">
+        <v>157</v>
+      </c>
+      <c r="N120" s="3">
+        <v>88</v>
+      </c>
+      <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>11368</v>
       </c>
@@ -5551,8 +6491,16 @@
       <c r="K121" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M121" s="3">
+        <v>194</v>
+      </c>
+      <c r="N121" s="3">
+        <v>242</v>
+      </c>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>11380</v>
       </c>
@@ -5586,8 +6534,16 @@
       <c r="K122" s="2">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M122" s="3">
+        <v>245</v>
+      </c>
+      <c r="N122" s="3">
+        <v>82</v>
+      </c>
+      <c r="P122" s="5"/>
+      <c r="Q122" s="5"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>11396</v>
       </c>
@@ -5621,8 +6577,16 @@
       <c r="K123" s="2">
         <v>59.5</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M123" s="3">
+        <v>287</v>
+      </c>
+      <c r="N123" s="3">
+        <v>285</v>
+      </c>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="5"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>11404</v>
       </c>
@@ -5656,8 +6620,16 @@
       <c r="K124" s="2">
         <v>91.5</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M124" s="3">
+        <v>26</v>
+      </c>
+      <c r="N124" s="3">
+        <v>14</v>
+      </c>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="5"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>11423</v>
       </c>
@@ -5691,8 +6663,16 @@
       <c r="K125" s="2">
         <v>72.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M125" s="3">
+        <v>259</v>
+      </c>
+      <c r="N125" s="3">
+        <v>246</v>
+      </c>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="5"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>11424</v>
       </c>
@@ -5726,8 +6706,16 @@
       <c r="K126" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M126" s="3">
+        <v>43</v>
+      </c>
+      <c r="N126" s="3">
+        <v>12</v>
+      </c>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>11425</v>
       </c>
@@ -5761,8 +6749,16 @@
       <c r="K127" s="2">
         <v>88.5</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M127" s="3">
+        <v>147</v>
+      </c>
+      <c r="N127" s="3">
+        <v>26</v>
+      </c>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>11430</v>
       </c>
@@ -5796,8 +6792,16 @@
       <c r="K128" s="2">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M128" s="3">
+        <v>97</v>
+      </c>
+      <c r="N128" s="3">
+        <v>12</v>
+      </c>
+      <c r="P128" s="5"/>
+      <c r="Q128" s="5"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>11437</v>
       </c>
@@ -5831,8 +6835,16 @@
       <c r="K129" s="2">
         <v>62.5</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M129" s="3">
+        <v>279</v>
+      </c>
+      <c r="N129" s="3">
+        <v>251</v>
+      </c>
+      <c r="P129" s="5"/>
+      <c r="Q129" s="5"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>11438</v>
       </c>
@@ -5866,8 +6878,16 @@
       <c r="K130" s="2">
         <v>72.5</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M130" s="3">
+        <v>275</v>
+      </c>
+      <c r="N130" s="3">
+        <v>264</v>
+      </c>
+      <c r="P130" s="5"/>
+      <c r="Q130" s="5"/>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>11439</v>
       </c>
@@ -5901,8 +6921,16 @@
       <c r="K131" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M131" s="3">
+        <v>203</v>
+      </c>
+      <c r="N131" s="3">
+        <v>258</v>
+      </c>
+      <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>11444</v>
       </c>
@@ -5936,8 +6964,16 @@
       <c r="K132" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M132" s="3">
+        <v>107</v>
+      </c>
+      <c r="N132" s="3">
+        <v>26</v>
+      </c>
+      <c r="P132" s="5"/>
+      <c r="Q132" s="5"/>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>11452</v>
       </c>
@@ -5971,8 +7007,16 @@
       <c r="K133" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M133" s="3">
+        <v>197</v>
+      </c>
+      <c r="N133" s="3">
+        <v>166</v>
+      </c>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>11459</v>
       </c>
@@ -6006,8 +7050,16 @@
       <c r="K134" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M134" s="3">
+        <v>138</v>
+      </c>
+      <c r="N134" s="3">
+        <v>33</v>
+      </c>
+      <c r="P134" s="5"/>
+      <c r="Q134" s="5"/>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>11461</v>
       </c>
@@ -6041,8 +7093,16 @@
       <c r="K135" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M135" s="3">
+        <v>82</v>
+      </c>
+      <c r="N135" s="3">
+        <v>59</v>
+      </c>
+      <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>11471</v>
       </c>
@@ -6076,8 +7136,16 @@
       <c r="K136" s="2">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M136" s="3">
+        <v>34</v>
+      </c>
+      <c r="N136" s="3">
+        <v>14</v>
+      </c>
+      <c r="P136" s="5"/>
+      <c r="Q136" s="5"/>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>11487</v>
       </c>
@@ -6111,8 +7179,16 @@
       <c r="K137" s="2">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M137" s="3">
+        <v>189</v>
+      </c>
+      <c r="N137" s="3">
+        <v>182</v>
+      </c>
+      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>11496</v>
       </c>
@@ -6146,8 +7222,16 @@
       <c r="K138" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M138" s="3">
+        <v>163</v>
+      </c>
+      <c r="N138" s="3">
+        <v>192</v>
+      </c>
+      <c r="P138" s="5"/>
+      <c r="Q138" s="5"/>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>11505</v>
       </c>
@@ -6181,8 +7265,16 @@
       <c r="K139" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M139" s="3">
+        <v>205</v>
+      </c>
+      <c r="N139" s="3">
+        <v>235</v>
+      </c>
+      <c r="P139" s="5"/>
+      <c r="Q139" s="5"/>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>11507</v>
       </c>
@@ -6216,8 +7308,16 @@
       <c r="K140" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M140" s="3">
+        <v>234</v>
+      </c>
+      <c r="N140" s="3">
+        <v>161</v>
+      </c>
+      <c r="P140" s="5"/>
+      <c r="Q140" s="5"/>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>11518</v>
       </c>
@@ -6251,8 +7351,16 @@
       <c r="K141" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M141" s="3">
+        <v>112</v>
+      </c>
+      <c r="N141" s="3">
+        <v>59</v>
+      </c>
+      <c r="P141" s="5"/>
+      <c r="Q141" s="5"/>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>11534</v>
       </c>
@@ -6286,8 +7394,16 @@
       <c r="K142" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M142" s="3">
+        <v>97</v>
+      </c>
+      <c r="N142" s="3">
+        <v>135</v>
+      </c>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>11538</v>
       </c>
@@ -6321,8 +7437,16 @@
       <c r="K143" s="2">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M143" s="3">
+        <v>167</v>
+      </c>
+      <c r="N143" s="3">
+        <v>130</v>
+      </c>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>11552</v>
       </c>
@@ -6356,8 +7480,16 @@
       <c r="K144" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M144" s="3">
+        <v>143</v>
+      </c>
+      <c r="N144" s="3">
+        <v>166</v>
+      </c>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>11556</v>
       </c>
@@ -6391,8 +7523,16 @@
       <c r="K145" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M145" s="3">
+        <v>43</v>
+      </c>
+      <c r="N145" s="3">
+        <v>76</v>
+      </c>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>11566</v>
       </c>
@@ -6426,8 +7566,16 @@
       <c r="K146" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M146" s="3">
+        <v>251</v>
+      </c>
+      <c r="N146" s="3">
+        <v>48</v>
+      </c>
+      <c r="P146" s="5"/>
+      <c r="Q146" s="5"/>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>11576</v>
       </c>
@@ -6461,8 +7609,16 @@
       <c r="K147" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M147" s="3">
+        <v>28</v>
+      </c>
+      <c r="N147" s="3">
+        <v>101</v>
+      </c>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>11577</v>
       </c>
@@ -6496,8 +7652,16 @@
       <c r="K148" s="2">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M148" s="3">
+        <v>68</v>
+      </c>
+      <c r="N148" s="3">
+        <v>39</v>
+      </c>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>11581</v>
       </c>
@@ -6531,8 +7695,16 @@
       <c r="K149" s="2">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M149" s="3">
+        <v>281</v>
+      </c>
+      <c r="N149" s="3">
+        <v>240</v>
+      </c>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>11304</v>
       </c>
@@ -6566,8 +7738,16 @@
       <c r="K150" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M150" s="3">
+        <v>157</v>
+      </c>
+      <c r="N150" s="3">
+        <v>26</v>
+      </c>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>11312</v>
       </c>
@@ -6601,8 +7781,16 @@
       <c r="K151" s="2">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M151" s="3">
+        <v>138</v>
+      </c>
+      <c r="N151" s="3">
+        <v>56</v>
+      </c>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>11313</v>
       </c>
@@ -6636,8 +7824,16 @@
       <c r="K152" s="2">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M152" s="3">
+        <v>59</v>
+      </c>
+      <c r="N152" s="3">
+        <v>121</v>
+      </c>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>11314</v>
       </c>
@@ -6671,8 +7867,16 @@
       <c r="K153" s="2">
         <v>72.5</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M153" s="3">
+        <v>277</v>
+      </c>
+      <c r="N153" s="3">
+        <v>259</v>
+      </c>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>11320</v>
       </c>
@@ -6706,8 +7910,16 @@
       <c r="K154" s="2">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M154" s="3">
+        <v>104</v>
+      </c>
+      <c r="N154" s="3">
+        <v>172</v>
+      </c>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>11323</v>
       </c>
@@ -6741,8 +7953,16 @@
       <c r="K155" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M155" s="3">
+        <v>267</v>
+      </c>
+      <c r="N155" s="3">
+        <v>273</v>
+      </c>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>11329</v>
       </c>
@@ -6776,8 +7996,16 @@
       <c r="K156" s="2">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M156" s="3">
+        <v>86</v>
+      </c>
+      <c r="N156" s="3">
+        <v>107</v>
+      </c>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>11330</v>
       </c>
@@ -6811,8 +8039,16 @@
       <c r="K157" s="2">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M157" s="3">
+        <v>143</v>
+      </c>
+      <c r="N157" s="3">
+        <v>211</v>
+      </c>
+      <c r="P157" s="5"/>
+      <c r="Q157" s="5"/>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>11331</v>
       </c>
@@ -6846,8 +8082,16 @@
       <c r="K158" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M158" s="3">
+        <v>72</v>
+      </c>
+      <c r="N158" s="3">
+        <v>39</v>
+      </c>
+      <c r="P158" s="5"/>
+      <c r="Q158" s="5"/>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>11340</v>
       </c>
@@ -6881,8 +8125,16 @@
       <c r="K159" s="2">
         <v>93</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M159" s="3">
+        <v>104</v>
+      </c>
+      <c r="N159" s="3">
+        <v>8</v>
+      </c>
+      <c r="P159" s="5"/>
+      <c r="Q159" s="5"/>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>11342</v>
       </c>
@@ -6916,8 +8168,16 @@
       <c r="K160" s="2">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M160" s="3">
+        <v>251</v>
+      </c>
+      <c r="N160" s="3">
+        <v>251</v>
+      </c>
+      <c r="P160" s="5"/>
+      <c r="Q160" s="5"/>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>11353</v>
       </c>
@@ -6951,8 +8211,16 @@
       <c r="K161" s="2">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M161" s="3">
+        <v>92</v>
+      </c>
+      <c r="N161" s="3">
+        <v>192</v>
+      </c>
+      <c r="P161" s="5"/>
+      <c r="Q161" s="5"/>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>11357</v>
       </c>
@@ -6986,8 +8254,16 @@
       <c r="K162" s="2">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M162" s="3">
+        <v>15</v>
+      </c>
+      <c r="N162" s="3">
+        <v>8</v>
+      </c>
+      <c r="P162" s="5"/>
+      <c r="Q162" s="5"/>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>11369</v>
       </c>
@@ -7021,8 +8297,16 @@
       <c r="K163" s="2">
         <v>93</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M163" s="3">
+        <v>72</v>
+      </c>
+      <c r="N163" s="3">
+        <v>33</v>
+      </c>
+      <c r="P163" s="5"/>
+      <c r="Q163" s="5"/>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>11382</v>
       </c>
@@ -7056,8 +8340,16 @@
       <c r="K164" s="2">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M164" s="3">
+        <v>149</v>
+      </c>
+      <c r="N164" s="3">
+        <v>159</v>
+      </c>
+      <c r="P164" s="5"/>
+      <c r="Q164" s="5"/>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>11386</v>
       </c>
@@ -7091,8 +8383,16 @@
       <c r="K165" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M165" s="3">
+        <v>198</v>
+      </c>
+      <c r="N165" s="3">
+        <v>76</v>
+      </c>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>11392</v>
       </c>
@@ -7126,8 +8426,16 @@
       <c r="K166" s="2">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M166" s="3">
+        <v>257</v>
+      </c>
+      <c r="N166" s="3">
+        <v>166</v>
+      </c>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="5"/>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>11397</v>
       </c>
@@ -7161,8 +8469,16 @@
       <c r="K167" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M167" s="3">
+        <v>205</v>
+      </c>
+      <c r="N167" s="3">
+        <v>26</v>
+      </c>
+      <c r="P167" s="5"/>
+      <c r="Q167" s="5"/>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>11416</v>
       </c>
@@ -7196,8 +8512,16 @@
       <c r="K168" s="2">
         <v>71.5</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M168" s="3">
+        <v>174</v>
+      </c>
+      <c r="N168" s="3">
+        <v>219</v>
+      </c>
+      <c r="P168" s="5"/>
+      <c r="Q168" s="5"/>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>11421</v>
       </c>
@@ -7231,8 +8555,16 @@
       <c r="K169" s="2">
         <v>72.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M169" s="3">
+        <v>24</v>
+      </c>
+      <c r="N169" s="3">
+        <v>223</v>
+      </c>
+      <c r="P169" s="5"/>
+      <c r="Q169" s="5"/>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>11426</v>
       </c>
@@ -7266,8 +8598,16 @@
       <c r="K170" s="2">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M170" s="3">
+        <v>157</v>
+      </c>
+      <c r="N170" s="3">
+        <v>219</v>
+      </c>
+      <c r="P170" s="5"/>
+      <c r="Q170" s="5"/>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1</v>
       </c>
@@ -7301,8 +8641,16 @@
       <c r="K171" s="3">
         <v>73</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M171" s="3">
+        <v>241</v>
+      </c>
+      <c r="N171" s="3">
+        <v>231</v>
+      </c>
+      <c r="P171" s="5"/>
+      <c r="Q171" s="5"/>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>11433</v>
       </c>
@@ -7336,8 +8684,16 @@
       <c r="K172" s="2">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M172" s="3">
+        <v>68</v>
+      </c>
+      <c r="N172" s="3">
+        <v>127</v>
+      </c>
+      <c r="P172" s="5"/>
+      <c r="Q172" s="5"/>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>11440</v>
       </c>
@@ -7371,8 +8727,16 @@
       <c r="K173" s="2">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M173" s="3">
+        <v>232</v>
+      </c>
+      <c r="N173" s="3">
+        <v>82</v>
+      </c>
+      <c r="P173" s="5"/>
+      <c r="Q173" s="5"/>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>11453</v>
       </c>
@@ -7406,8 +8770,16 @@
       <c r="K174" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M174" s="3">
+        <v>225</v>
+      </c>
+      <c r="N174" s="3">
+        <v>211</v>
+      </c>
+      <c r="P174" s="5"/>
+      <c r="Q174" s="5"/>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>11472</v>
       </c>
@@ -7441,8 +8813,16 @@
       <c r="K175" s="2">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M175" s="3">
+        <v>130</v>
+      </c>
+      <c r="N175" s="3">
+        <v>114</v>
+      </c>
+      <c r="P175" s="5"/>
+      <c r="Q175" s="5"/>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>11481</v>
       </c>
@@ -7476,8 +8856,16 @@
       <c r="K176" s="2">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M176" s="3">
+        <v>104</v>
+      </c>
+      <c r="N176" s="3">
+        <v>202</v>
+      </c>
+      <c r="P176" s="5"/>
+      <c r="Q176" s="5"/>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>11490</v>
       </c>
@@ -7511,8 +8899,16 @@
       <c r="K177" s="2">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M177" s="3">
+        <v>18</v>
+      </c>
+      <c r="N177" s="3">
+        <v>4</v>
+      </c>
+      <c r="P177" s="5"/>
+      <c r="Q177" s="5"/>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>11506</v>
       </c>
@@ -7546,8 +8942,16 @@
       <c r="K178" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M178" s="3">
+        <v>76</v>
+      </c>
+      <c r="N178" s="3">
+        <v>141</v>
+      </c>
+      <c r="P178" s="5"/>
+      <c r="Q178" s="5"/>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>11524</v>
       </c>
@@ -7581,8 +8985,16 @@
       <c r="K179" s="2">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M179" s="3">
+        <v>261</v>
+      </c>
+      <c r="N179" s="3">
+        <v>263</v>
+      </c>
+      <c r="P179" s="5"/>
+      <c r="Q179" s="5"/>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>11539</v>
       </c>
@@ -7616,8 +9028,16 @@
       <c r="K180" s="2">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M180" s="3">
+        <v>138</v>
+      </c>
+      <c r="N180" s="3">
+        <v>114</v>
+      </c>
+      <c r="P180" s="5"/>
+      <c r="Q180" s="5"/>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>11540</v>
       </c>
@@ -7651,8 +9071,16 @@
       <c r="K181" s="2">
         <v>71.5</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M181" s="3">
+        <v>263</v>
+      </c>
+      <c r="N181" s="3">
+        <v>277</v>
+      </c>
+      <c r="P181" s="5"/>
+      <c r="Q181" s="5"/>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>11550</v>
       </c>
@@ -7686,8 +9114,16 @@
       <c r="K182" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M182" s="3">
+        <v>115</v>
+      </c>
+      <c r="N182" s="3">
+        <v>111</v>
+      </c>
+      <c r="P182" s="5"/>
+      <c r="Q182" s="5"/>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>11567</v>
       </c>
@@ -7721,8 +9157,16 @@
       <c r="K183" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M183" s="3">
+        <v>6</v>
+      </c>
+      <c r="N183" s="3">
+        <v>154</v>
+      </c>
+      <c r="P183" s="5"/>
+      <c r="Q183" s="5"/>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>11579</v>
       </c>
@@ -7756,8 +9200,16 @@
       <c r="K184" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M184" s="3">
+        <v>149</v>
+      </c>
+      <c r="N184" s="3">
+        <v>107</v>
+      </c>
+      <c r="P184" s="5"/>
+      <c r="Q184" s="5"/>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>11582</v>
       </c>
@@ -7791,8 +9243,16 @@
       <c r="K185" s="2">
         <v>88</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M185" s="3">
+        <v>112</v>
+      </c>
+      <c r="N185" s="3">
+        <v>73</v>
+      </c>
+      <c r="P185" s="5"/>
+      <c r="Q185" s="5"/>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>11316</v>
       </c>
@@ -7826,8 +9286,16 @@
       <c r="K186" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M186" s="3">
+        <v>163</v>
+      </c>
+      <c r="N186" s="3">
+        <v>107</v>
+      </c>
+      <c r="P186" s="5"/>
+      <c r="Q186" s="5"/>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>11317</v>
       </c>
@@ -7861,8 +9329,16 @@
       <c r="K187" s="2">
         <v>69.5</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M187" s="3">
+        <v>219</v>
+      </c>
+      <c r="N187" s="3">
+        <v>259</v>
+      </c>
+      <c r="P187" s="5"/>
+      <c r="Q187" s="5"/>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>11333</v>
       </c>
@@ -7896,8 +9372,16 @@
       <c r="K188" s="2">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M188" s="3">
+        <v>120</v>
+      </c>
+      <c r="N188" s="3">
+        <v>121</v>
+      </c>
+      <c r="P188" s="5"/>
+      <c r="Q188" s="5"/>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>11343</v>
       </c>
@@ -7931,8 +9415,16 @@
       <c r="K189" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M189" s="3">
+        <v>192</v>
+      </c>
+      <c r="N189" s="3">
+        <v>257</v>
+      </c>
+      <c r="P189" s="5"/>
+      <c r="Q189" s="5"/>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>11359</v>
       </c>
@@ -7966,8 +9458,16 @@
       <c r="K190" s="2">
         <v>69.5</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M190" s="3">
+        <v>186</v>
+      </c>
+      <c r="N190" s="3">
+        <v>273</v>
+      </c>
+      <c r="P190" s="5"/>
+      <c r="Q190" s="5"/>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>11360</v>
       </c>
@@ -8001,8 +9501,16 @@
       <c r="K191" s="2">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M191" s="3">
+        <v>225</v>
+      </c>
+      <c r="N191" s="3">
+        <v>192</v>
+      </c>
+      <c r="P191" s="5"/>
+      <c r="Q191" s="5"/>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>11361</v>
       </c>
@@ -8036,8 +9544,16 @@
       <c r="K192" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M192" s="3">
+        <v>128</v>
+      </c>
+      <c r="N192" s="3">
+        <v>172</v>
+      </c>
+      <c r="P192" s="5"/>
+      <c r="Q192" s="5"/>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>11371</v>
       </c>
@@ -8071,8 +9587,16 @@
       <c r="K193" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M193" s="3">
+        <v>242</v>
+      </c>
+      <c r="N193" s="3">
+        <v>235</v>
+      </c>
+      <c r="P193" s="5"/>
+      <c r="Q193" s="5"/>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>11387</v>
       </c>
@@ -8106,8 +9630,16 @@
       <c r="K194" s="2">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M194" s="3">
+        <v>174</v>
+      </c>
+      <c r="N194" s="3">
+        <v>37</v>
+      </c>
+      <c r="P194" s="5"/>
+      <c r="Q194" s="5"/>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>11388</v>
       </c>
@@ -8141,8 +9673,16 @@
       <c r="K195" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M195" s="3">
+        <v>126</v>
+      </c>
+      <c r="N195" s="3">
+        <v>33</v>
+      </c>
+      <c r="P195" s="5"/>
+      <c r="Q195" s="5"/>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>11389</v>
       </c>
@@ -8176,8 +9716,16 @@
       <c r="K196" s="2">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M196" s="3">
+        <v>48</v>
+      </c>
+      <c r="N196" s="3">
+        <v>91</v>
+      </c>
+      <c r="P196" s="5"/>
+      <c r="Q196" s="5"/>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>11400</v>
       </c>
@@ -8211,8 +9759,16 @@
       <c r="K197" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M197" s="3">
+        <v>53</v>
+      </c>
+      <c r="N197" s="3">
+        <v>53</v>
+      </c>
+      <c r="P197" s="5"/>
+      <c r="Q197" s="5"/>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>11406</v>
       </c>
@@ -8246,8 +9802,16 @@
       <c r="K198" s="2">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M198" s="3">
+        <v>174</v>
+      </c>
+      <c r="N198" s="3">
+        <v>264</v>
+      </c>
+      <c r="P198" s="5"/>
+      <c r="Q198" s="5"/>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>11407</v>
       </c>
@@ -8281,8 +9845,16 @@
       <c r="K199" s="2">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M199" s="3">
+        <v>130</v>
+      </c>
+      <c r="N199" s="3">
+        <v>88</v>
+      </c>
+      <c r="P199" s="5"/>
+      <c r="Q199" s="5"/>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>11417</v>
       </c>
@@ -8316,8 +9888,16 @@
       <c r="K200" s="2">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M200" s="3">
+        <v>169</v>
+      </c>
+      <c r="N200" s="3">
+        <v>154</v>
+      </c>
+      <c r="P200" s="5"/>
+      <c r="Q200" s="5"/>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>11427</v>
       </c>
@@ -8351,8 +9931,16 @@
       <c r="K201" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M201" s="3">
+        <v>7</v>
+      </c>
+      <c r="N201" s="3">
+        <v>172</v>
+      </c>
+      <c r="P201" s="5"/>
+      <c r="Q201" s="5"/>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>11441</v>
       </c>
@@ -8386,8 +9974,16 @@
       <c r="K202" s="2">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M202" s="3">
+        <v>167</v>
+      </c>
+      <c r="N202" s="3">
+        <v>161</v>
+      </c>
+      <c r="P202" s="5"/>
+      <c r="Q202" s="5"/>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>11445</v>
       </c>
@@ -8421,8 +10017,16 @@
       <c r="K203" s="2">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M203" s="3">
+        <v>76</v>
+      </c>
+      <c r="N203" s="3">
+        <v>18</v>
+      </c>
+      <c r="P203" s="5"/>
+      <c r="Q203" s="5"/>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>11454</v>
       </c>
@@ -8456,8 +10060,16 @@
       <c r="K204" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M204" s="3">
+        <v>174</v>
+      </c>
+      <c r="N204" s="3">
+        <v>99</v>
+      </c>
+      <c r="P204" s="5"/>
+      <c r="Q204" s="5"/>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>11457</v>
       </c>
@@ -8491,8 +10103,16 @@
       <c r="K205" s="2">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M205" s="3">
+        <v>215</v>
+      </c>
+      <c r="N205" s="3">
+        <v>145</v>
+      </c>
+      <c r="P205" s="5"/>
+      <c r="Q205" s="5"/>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>11474</v>
       </c>
@@ -8526,8 +10146,16 @@
       <c r="K206" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M206" s="3">
+        <v>64</v>
+      </c>
+      <c r="N206" s="3">
+        <v>64</v>
+      </c>
+      <c r="P206" s="5"/>
+      <c r="Q206" s="5"/>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>11484</v>
       </c>
@@ -8561,8 +10189,16 @@
       <c r="K207" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M207" s="3">
+        <v>225</v>
+      </c>
+      <c r="N207" s="3">
+        <v>250</v>
+      </c>
+      <c r="P207" s="5"/>
+      <c r="Q207" s="5"/>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>11491</v>
       </c>
@@ -8596,8 +10232,16 @@
       <c r="K208" s="2">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M208" s="3">
+        <v>48</v>
+      </c>
+      <c r="N208" s="3">
+        <v>26</v>
+      </c>
+      <c r="P208" s="5"/>
+      <c r="Q208" s="5"/>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>11499</v>
       </c>
@@ -8631,8 +10275,16 @@
       <c r="K209" s="2">
         <v>65.5</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M209" s="3">
+        <v>242</v>
+      </c>
+      <c r="N209" s="3">
+        <v>278</v>
+      </c>
+      <c r="P209" s="5"/>
+      <c r="Q209" s="5"/>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>11501</v>
       </c>
@@ -8666,8 +10318,16 @@
       <c r="K210" s="2">
         <v>71.5</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M210" s="3">
+        <v>251</v>
+      </c>
+      <c r="N210" s="3">
+        <v>264</v>
+      </c>
+      <c r="P210" s="5"/>
+      <c r="Q210" s="5"/>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>11512</v>
       </c>
@@ -8701,8 +10361,16 @@
       <c r="K211" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M211" s="3">
+        <v>56</v>
+      </c>
+      <c r="N211" s="3">
+        <v>184</v>
+      </c>
+      <c r="P211" s="5"/>
+      <c r="Q211" s="5"/>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>11520</v>
       </c>
@@ -8736,8 +10404,16 @@
       <c r="K212" s="2">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M212" s="3">
+        <v>48</v>
+      </c>
+      <c r="N212" s="3">
+        <v>82</v>
+      </c>
+      <c r="P212" s="5"/>
+      <c r="Q212" s="5"/>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>11526</v>
       </c>
@@ -8771,8 +10447,16 @@
       <c r="K213" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M213" s="3">
+        <v>112</v>
+      </c>
+      <c r="N213" s="3">
+        <v>64</v>
+      </c>
+      <c r="P213" s="5"/>
+      <c r="Q213" s="5"/>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>11541</v>
       </c>
@@ -8806,8 +10490,16 @@
       <c r="K214" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M214" s="3">
+        <v>157</v>
+      </c>
+      <c r="N214" s="3">
+        <v>121</v>
+      </c>
+      <c r="P214" s="5"/>
+      <c r="Q214" s="5"/>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>11542</v>
       </c>
@@ -8841,8 +10533,16 @@
       <c r="K215" s="2">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M215" s="3">
+        <v>189</v>
+      </c>
+      <c r="N215" s="3">
+        <v>207</v>
+      </c>
+      <c r="P215" s="5"/>
+      <c r="Q215" s="5"/>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>11551</v>
       </c>
@@ -8876,8 +10576,16 @@
       <c r="K216" s="2">
         <v>60.5</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M216" s="3">
+        <v>254</v>
+      </c>
+      <c r="N216" s="3">
+        <v>282</v>
+      </c>
+      <c r="P216" s="5"/>
+      <c r="Q216" s="5"/>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>11553</v>
       </c>
@@ -8911,8 +10619,16 @@
       <c r="K217" s="2">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M217" s="3">
+        <v>39</v>
+      </c>
+      <c r="N217" s="3">
+        <v>216</v>
+      </c>
+      <c r="P217" s="5"/>
+      <c r="Q217" s="5"/>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>11561</v>
       </c>
@@ -8946,8 +10662,16 @@
       <c r="K218" s="2">
         <v>80.5</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M218" s="3">
+        <v>72</v>
+      </c>
+      <c r="N218" s="3">
+        <v>141</v>
+      </c>
+      <c r="P218" s="5"/>
+      <c r="Q218" s="5"/>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>11570</v>
       </c>
@@ -8981,8 +10705,16 @@
       <c r="K219" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M219" s="3">
+        <v>18</v>
+      </c>
+      <c r="N219" s="3">
+        <v>26</v>
+      </c>
+      <c r="P219" s="5"/>
+      <c r="Q219" s="5"/>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>11580</v>
       </c>
@@ -9016,8 +10748,16 @@
       <c r="K220" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M220" s="3">
+        <v>149</v>
+      </c>
+      <c r="N220" s="3">
+        <v>233</v>
+      </c>
+      <c r="P220" s="5"/>
+      <c r="Q220" s="5"/>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>11584</v>
       </c>
@@ -9051,8 +10791,16 @@
       <c r="K221" s="2">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M221" s="3">
+        <v>272</v>
+      </c>
+      <c r="N221" s="3">
+        <v>219</v>
+      </c>
+      <c r="P221" s="5"/>
+      <c r="Q221" s="5"/>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>11318</v>
       </c>
@@ -9086,8 +10834,16 @@
       <c r="K222" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M222" s="3">
+        <v>272</v>
+      </c>
+      <c r="N222" s="3">
+        <v>264</v>
+      </c>
+      <c r="P222" s="5"/>
+      <c r="Q222" s="5"/>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>11319</v>
       </c>
@@ -9121,8 +10877,16 @@
       <c r="K223" s="2">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M223" s="3">
+        <v>163</v>
+      </c>
+      <c r="N223" s="3">
+        <v>135</v>
+      </c>
+      <c r="P223" s="5"/>
+      <c r="Q223" s="5"/>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>11337</v>
       </c>
@@ -9156,8 +10920,16 @@
       <c r="K224" s="2">
         <v>71.5</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M224" s="3">
+        <v>219</v>
+      </c>
+      <c r="N224" s="3">
+        <v>237</v>
+      </c>
+      <c r="P224" s="5"/>
+      <c r="Q224" s="5"/>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>11344</v>
       </c>
@@ -9191,8 +10963,16 @@
       <c r="K225" s="2">
         <v>79.5</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M225" s="3">
+        <v>43</v>
+      </c>
+      <c r="N225" s="3">
+        <v>64</v>
+      </c>
+      <c r="P225" s="5"/>
+      <c r="Q225" s="5"/>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>11348</v>
       </c>
@@ -9226,8 +11006,16 @@
       <c r="K226" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M226" s="3">
+        <v>97</v>
+      </c>
+      <c r="N226" s="3">
+        <v>91</v>
+      </c>
+      <c r="P226" s="5"/>
+      <c r="Q226" s="5"/>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>11362</v>
       </c>
@@ -9261,8 +11049,16 @@
       <c r="K227" s="2">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M227" s="3">
+        <v>95</v>
+      </c>
+      <c r="N227" s="3">
+        <v>59</v>
+      </c>
+      <c r="P227" s="5"/>
+      <c r="Q227" s="5"/>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>11364</v>
       </c>
@@ -9296,8 +11092,16 @@
       <c r="K228" s="2">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M228" s="3">
+        <v>59</v>
+      </c>
+      <c r="N228" s="3">
+        <v>20</v>
+      </c>
+      <c r="P228" s="5"/>
+      <c r="Q228" s="5"/>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>11370</v>
       </c>
@@ -9331,8 +11135,16 @@
       <c r="K229" s="2">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M229" s="3">
+        <v>120</v>
+      </c>
+      <c r="N229" s="3">
+        <v>114</v>
+      </c>
+      <c r="P229" s="5"/>
+      <c r="Q229" s="5"/>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>11374</v>
       </c>
@@ -9366,8 +11178,16 @@
       <c r="K230" s="2">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M230" s="3">
+        <v>143</v>
+      </c>
+      <c r="N230" s="3">
+        <v>106</v>
+      </c>
+      <c r="P230" s="5"/>
+      <c r="Q230" s="5"/>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>11390</v>
       </c>
@@ -9401,8 +11221,16 @@
       <c r="K231" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M231" s="3">
+        <v>102</v>
+      </c>
+      <c r="N231" s="3">
+        <v>119</v>
+      </c>
+      <c r="P231" s="5"/>
+      <c r="Q231" s="5"/>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>11394</v>
       </c>
@@ -9436,8 +11264,16 @@
       <c r="K232" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M232" s="3">
+        <v>149</v>
+      </c>
+      <c r="N232" s="3">
+        <v>76</v>
+      </c>
+      <c r="P232" s="5"/>
+      <c r="Q232" s="5"/>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>11408</v>
       </c>
@@ -9471,8 +11307,16 @@
       <c r="K233" s="2">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M233" s="3">
+        <v>115</v>
+      </c>
+      <c r="N233" s="3">
+        <v>114</v>
+      </c>
+      <c r="P233" s="5"/>
+      <c r="Q233" s="5"/>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>11411</v>
       </c>
@@ -9506,8 +11350,16 @@
       <c r="K234" s="2">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M234" s="3">
+        <v>237</v>
+      </c>
+      <c r="N234" s="3">
+        <v>127</v>
+      </c>
+      <c r="P234" s="5"/>
+      <c r="Q234" s="5"/>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>11413</v>
       </c>
@@ -9541,8 +11393,16 @@
       <c r="K235" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M235" s="3">
+        <v>194</v>
+      </c>
+      <c r="N235" s="3">
+        <v>163</v>
+      </c>
+      <c r="P235" s="5"/>
+      <c r="Q235" s="5"/>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>11431</v>
       </c>
@@ -9576,8 +11436,16 @@
       <c r="K236" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M236" s="3">
+        <v>154</v>
+      </c>
+      <c r="N236" s="3">
+        <v>163</v>
+      </c>
+      <c r="P236" s="5"/>
+      <c r="Q236" s="5"/>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>11442</v>
       </c>
@@ -9611,8 +11479,16 @@
       <c r="K237" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M237" s="3">
+        <v>130</v>
+      </c>
+      <c r="N237" s="3">
+        <v>141</v>
+      </c>
+      <c r="P237" s="5"/>
+      <c r="Q237" s="5"/>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>11447</v>
       </c>
@@ -9646,8 +11522,16 @@
       <c r="K238" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M238" s="3">
+        <v>234</v>
+      </c>
+      <c r="N238" s="3">
+        <v>202</v>
+      </c>
+      <c r="P238" s="5"/>
+      <c r="Q238" s="5"/>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>11449</v>
       </c>
@@ -9681,8 +11565,16 @@
       <c r="K239" s="2">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M239" s="3">
+        <v>169</v>
+      </c>
+      <c r="N239" s="3">
+        <v>76</v>
+      </c>
+      <c r="P239" s="5"/>
+      <c r="Q239" s="5"/>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>11455</v>
       </c>
@@ -9716,8 +11608,16 @@
       <c r="K240" s="2">
         <v>72.5</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M240" s="3">
+        <v>237</v>
+      </c>
+      <c r="N240" s="3">
+        <v>246</v>
+      </c>
+      <c r="P240" s="5"/>
+      <c r="Q240" s="5"/>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>11466</v>
       </c>
@@ -9751,8 +11651,16 @@
       <c r="K241" s="2">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M241" s="3">
+        <v>36</v>
+      </c>
+      <c r="N241" s="3">
+        <v>23</v>
+      </c>
+      <c r="P241" s="5"/>
+      <c r="Q241" s="5"/>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>11475</v>
       </c>
@@ -9786,8 +11694,16 @@
       <c r="K242" s="2">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M242" s="3">
+        <v>232</v>
+      </c>
+      <c r="N242" s="3">
+        <v>150</v>
+      </c>
+      <c r="P242" s="5"/>
+      <c r="Q242" s="5"/>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>11477</v>
       </c>
@@ -9821,8 +11737,16 @@
       <c r="K243" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M243" s="3">
+        <v>203</v>
+      </c>
+      <c r="N243" s="3">
+        <v>270</v>
+      </c>
+      <c r="P243" s="5"/>
+      <c r="Q243" s="5"/>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>11493</v>
       </c>
@@ -9856,8 +11780,16 @@
       <c r="K244" s="2">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M244" s="3">
+        <v>218</v>
+      </c>
+      <c r="N244" s="3">
+        <v>262</v>
+      </c>
+      <c r="P244" s="5"/>
+      <c r="Q244" s="5"/>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>11498</v>
       </c>
@@ -9891,8 +11823,16 @@
       <c r="K245" s="2">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M245" s="3">
+        <v>86</v>
+      </c>
+      <c r="N245" s="3">
+        <v>135</v>
+      </c>
+      <c r="P245" s="5"/>
+      <c r="Q245" s="5"/>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>11500</v>
       </c>
@@ -9926,8 +11866,16 @@
       <c r="K246" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M246" s="3">
+        <v>248</v>
+      </c>
+      <c r="N246" s="3">
+        <v>243</v>
+      </c>
+      <c r="P246" s="5"/>
+      <c r="Q246" s="5"/>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>11503</v>
       </c>
@@ -9961,8 +11909,16 @@
       <c r="K247" s="2">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M247" s="3">
+        <v>95</v>
+      </c>
+      <c r="N247" s="3">
+        <v>39</v>
+      </c>
+      <c r="P247" s="5"/>
+      <c r="Q247" s="5"/>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>11521</v>
       </c>
@@ -9996,8 +11952,16 @@
       <c r="K248" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M248" s="3">
+        <v>192</v>
+      </c>
+      <c r="N248" s="3">
+        <v>154</v>
+      </c>
+      <c r="P248" s="5"/>
+      <c r="Q248" s="5"/>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>11529</v>
       </c>
@@ -10031,8 +11995,16 @@
       <c r="K249" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M249" s="3">
+        <v>68</v>
+      </c>
+      <c r="N249" s="3">
+        <v>133</v>
+      </c>
+      <c r="P249" s="5"/>
+      <c r="Q249" s="5"/>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>11543</v>
       </c>
@@ -10066,8 +12038,16 @@
       <c r="K250" s="2">
         <v>58.5</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M250" s="3">
+        <v>264</v>
+      </c>
+      <c r="N250" s="3">
+        <v>287</v>
+      </c>
+      <c r="P250" s="5"/>
+      <c r="Q250" s="5"/>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>11545</v>
       </c>
@@ -10101,8 +12081,16 @@
       <c r="K251" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M251" s="3">
+        <v>228</v>
+      </c>
+      <c r="N251" s="3">
+        <v>166</v>
+      </c>
+      <c r="P251" s="5"/>
+      <c r="Q251" s="5"/>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>11549</v>
       </c>
@@ -10136,8 +12124,16 @@
       <c r="K252" s="2">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M252" s="3">
+        <v>134</v>
+      </c>
+      <c r="N252" s="3">
+        <v>111</v>
+      </c>
+      <c r="P252" s="5"/>
+      <c r="Q252" s="5"/>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>11562</v>
       </c>
@@ -10171,8 +12167,16 @@
       <c r="K253" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M253" s="3">
+        <v>261</v>
+      </c>
+      <c r="N253" s="3">
+        <v>202</v>
+      </c>
+      <c r="P253" s="5"/>
+      <c r="Q253" s="5"/>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>11571</v>
       </c>
@@ -10206,8 +12210,16 @@
       <c r="K254" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M254" s="3">
+        <v>31</v>
+      </c>
+      <c r="N254" s="3">
+        <v>2</v>
+      </c>
+      <c r="P254" s="5"/>
+      <c r="Q254" s="5"/>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>11572</v>
       </c>
@@ -10241,8 +12253,16 @@
       <c r="K255" s="2">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M255" s="3">
+        <v>31</v>
+      </c>
+      <c r="N255" s="3">
+        <v>163</v>
+      </c>
+      <c r="P255" s="5"/>
+      <c r="Q255" s="5"/>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>11585</v>
       </c>
@@ -10276,8 +12296,16 @@
       <c r="K256" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M256" s="3">
+        <v>107</v>
+      </c>
+      <c r="N256" s="3">
+        <v>99</v>
+      </c>
+      <c r="P256" s="5"/>
+      <c r="Q256" s="5"/>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>11586</v>
       </c>
@@ -10311,8 +12339,16 @@
       <c r="K257" s="2">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M257" s="3">
+        <v>210</v>
+      </c>
+      <c r="N257" s="3">
+        <v>196</v>
+      </c>
+      <c r="P257" s="5"/>
+      <c r="Q257" s="5"/>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>11322</v>
       </c>
@@ -10346,8 +12382,16 @@
       <c r="K258" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M258" s="3">
+        <v>169</v>
+      </c>
+      <c r="N258" s="3">
+        <v>179</v>
+      </c>
+      <c r="P258" s="5"/>
+      <c r="Q258" s="5"/>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>11334</v>
       </c>
@@ -10381,8 +12425,16 @@
       <c r="K259" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M259" s="3">
+        <v>64</v>
+      </c>
+      <c r="N259" s="3">
+        <v>3</v>
+      </c>
+      <c r="P259" s="5"/>
+      <c r="Q259" s="5"/>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>11341</v>
       </c>
@@ -10416,8 +12468,16 @@
       <c r="K260" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M260" s="3">
+        <v>135</v>
+      </c>
+      <c r="N260" s="3">
+        <v>52</v>
+      </c>
+      <c r="P260" s="5"/>
+      <c r="Q260" s="5"/>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>11345</v>
       </c>
@@ -10451,8 +12511,16 @@
       <c r="K261" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M261" s="3">
+        <v>285</v>
+      </c>
+      <c r="N261" s="3">
+        <v>275</v>
+      </c>
+      <c r="P261" s="5"/>
+      <c r="Q261" s="5"/>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>11346</v>
       </c>
@@ -10486,8 +12554,16 @@
       <c r="K262" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M262" s="3">
+        <v>76</v>
+      </c>
+      <c r="N262" s="3">
+        <v>150</v>
+      </c>
+      <c r="P262" s="5"/>
+      <c r="Q262" s="5"/>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>11377</v>
       </c>
@@ -10521,8 +12597,16 @@
       <c r="K263" s="2">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M263" s="3">
+        <v>157</v>
+      </c>
+      <c r="N263" s="3">
+        <v>199</v>
+      </c>
+      <c r="P263" s="5"/>
+      <c r="Q263" s="5"/>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>11395</v>
       </c>
@@ -10556,8 +12640,16 @@
       <c r="K264" s="2">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M264" s="3">
+        <v>56</v>
+      </c>
+      <c r="N264" s="3">
+        <v>46</v>
+      </c>
+      <c r="P264" s="5"/>
+      <c r="Q264" s="5"/>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>11399</v>
       </c>
@@ -10591,8 +12683,16 @@
       <c r="K265" s="2">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M265" s="3">
+        <v>270</v>
+      </c>
+      <c r="N265" s="3">
+        <v>196</v>
+      </c>
+      <c r="P265" s="5"/>
+      <c r="Q265" s="5"/>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>11419</v>
       </c>
@@ -10626,8 +12726,16 @@
       <c r="K266" s="2">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M266" s="3">
+        <v>39</v>
+      </c>
+      <c r="N266" s="3">
+        <v>39</v>
+      </c>
+      <c r="P266" s="5"/>
+      <c r="Q266" s="5"/>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>11428</v>
       </c>
@@ -10661,8 +12769,16 @@
       <c r="K267" s="2">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M267" s="3">
+        <v>173</v>
+      </c>
+      <c r="N267" s="3">
+        <v>177</v>
+      </c>
+      <c r="P267" s="5"/>
+      <c r="Q267" s="5"/>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>11432</v>
       </c>
@@ -10696,8 +12812,16 @@
       <c r="K268" s="2">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M268" s="3">
+        <v>250</v>
+      </c>
+      <c r="N268" s="3">
+        <v>166</v>
+      </c>
+      <c r="P268" s="5"/>
+      <c r="Q268" s="5"/>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>11446</v>
       </c>
@@ -10731,8 +12855,16 @@
       <c r="K269" s="2">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M269" s="3">
+        <v>59</v>
+      </c>
+      <c r="N269" s="3">
+        <v>6</v>
+      </c>
+      <c r="P269" s="5"/>
+      <c r="Q269" s="5"/>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>11456</v>
       </c>
@@ -10766,8 +12898,16 @@
       <c r="K270" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M270" s="3">
+        <v>186</v>
+      </c>
+      <c r="N270" s="3">
+        <v>184</v>
+      </c>
+      <c r="P270" s="5"/>
+      <c r="Q270" s="5"/>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>11462</v>
       </c>
@@ -10801,8 +12941,16 @@
       <c r="K271" s="2">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M271" s="3">
+        <v>22</v>
+      </c>
+      <c r="N271" s="3">
+        <v>1</v>
+      </c>
+      <c r="P271" s="5"/>
+      <c r="Q271" s="5"/>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>11463</v>
       </c>
@@ -10836,8 +12984,16 @@
       <c r="K272" s="2">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M272" s="3">
+        <v>86</v>
+      </c>
+      <c r="N272" s="3">
+        <v>82</v>
+      </c>
+      <c r="P272" s="5"/>
+      <c r="Q272" s="5"/>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>11467</v>
       </c>
@@ -10871,8 +13027,16 @@
       <c r="K273" s="2">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M273" s="3">
+        <v>64</v>
+      </c>
+      <c r="N273" s="3">
+        <v>189</v>
+      </c>
+      <c r="P273" s="5"/>
+      <c r="Q273" s="5"/>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>11478</v>
       </c>
@@ -10906,8 +13070,16 @@
       <c r="K274" s="2">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M274" s="3">
+        <v>76</v>
+      </c>
+      <c r="N274" s="3">
+        <v>96</v>
+      </c>
+      <c r="P274" s="5"/>
+      <c r="Q274" s="5"/>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>11482</v>
       </c>
@@ -10941,8 +13113,16 @@
       <c r="K275" s="2">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M275" s="3">
+        <v>174</v>
+      </c>
+      <c r="N275" s="3">
+        <v>90</v>
+      </c>
+      <c r="P275" s="5"/>
+      <c r="Q275" s="5"/>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>11483</v>
       </c>
@@ -10976,8 +13156,16 @@
       <c r="K276" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M276" s="3">
+        <v>76</v>
+      </c>
+      <c r="N276" s="3">
+        <v>111</v>
+      </c>
+      <c r="P276" s="5"/>
+      <c r="Q276" s="5"/>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>11488</v>
       </c>
@@ -11011,8 +13199,16 @@
       <c r="K277" s="2">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M277" s="3">
+        <v>54</v>
+      </c>
+      <c r="N277" s="3">
+        <v>8</v>
+      </c>
+      <c r="P277" s="5"/>
+      <c r="Q277" s="5"/>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>11492</v>
       </c>
@@ -11046,8 +13242,16 @@
       <c r="K278" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M278" s="3">
+        <v>138</v>
+      </c>
+      <c r="N278" s="3">
+        <v>91</v>
+      </c>
+      <c r="P278" s="5"/>
+      <c r="Q278" s="5"/>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>11497</v>
       </c>
@@ -11081,8 +13285,16 @@
       <c r="K279" s="2">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M279" s="3">
+        <v>36</v>
+      </c>
+      <c r="N279" s="3">
+        <v>19</v>
+      </c>
+      <c r="P279" s="5"/>
+      <c r="Q279" s="5"/>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>11502</v>
       </c>
@@ -11116,8 +13328,16 @@
       <c r="K280" s="2">
         <v>72.5</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M280" s="3">
+        <v>215</v>
+      </c>
+      <c r="N280" s="3">
+        <v>261</v>
+      </c>
+      <c r="P280" s="5"/>
+      <c r="Q280" s="5"/>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>11509</v>
       </c>
@@ -11151,8 +13371,16 @@
       <c r="K281" s="2">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M281" s="3">
+        <v>39</v>
+      </c>
+      <c r="N281" s="3">
+        <v>33</v>
+      </c>
+      <c r="P281" s="5"/>
+      <c r="Q281" s="5"/>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>11513</v>
       </c>
@@ -11186,8 +13414,16 @@
       <c r="K282" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M282" s="3">
+        <v>59</v>
+      </c>
+      <c r="N282" s="3">
+        <v>144</v>
+      </c>
+      <c r="P282" s="5"/>
+      <c r="Q282" s="5"/>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>11517</v>
       </c>
@@ -11221,8 +13457,16 @@
       <c r="K283" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M283" s="3">
+        <v>92</v>
+      </c>
+      <c r="N283" s="3">
+        <v>87</v>
+      </c>
+      <c r="P283" s="5"/>
+      <c r="Q283" s="5"/>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>11519</v>
       </c>
@@ -11256,8 +13500,16 @@
       <c r="K284" s="2">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M284" s="3">
+        <v>10</v>
+      </c>
+      <c r="N284" s="3">
+        <v>7</v>
+      </c>
+      <c r="P284" s="5"/>
+      <c r="Q284" s="5"/>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>11522</v>
       </c>
@@ -11291,8 +13543,16 @@
       <c r="K285" s="2">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M285" s="3">
+        <v>221</v>
+      </c>
+      <c r="N285" s="3">
+        <v>210</v>
+      </c>
+      <c r="P285" s="5"/>
+      <c r="Q285" s="5"/>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>11525</v>
       </c>
@@ -11326,8 +13586,16 @@
       <c r="K286" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M286" s="3">
+        <v>174</v>
+      </c>
+      <c r="N286" s="3">
+        <v>219</v>
+      </c>
+      <c r="P286" s="5"/>
+      <c r="Q286" s="5"/>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>11533</v>
       </c>
@@ -11361,8 +13629,16 @@
       <c r="K287" s="2">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M287" s="3">
+        <v>276</v>
+      </c>
+      <c r="N287" s="3">
+        <v>243</v>
+      </c>
+      <c r="P287" s="5"/>
+      <c r="Q287" s="5"/>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>11544</v>
       </c>
@@ -11396,8 +13672,16 @@
       <c r="K288" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M288" s="3">
+        <v>205</v>
+      </c>
+      <c r="N288" s="3">
+        <v>140</v>
+      </c>
+      <c r="P288" s="5"/>
+      <c r="Q288" s="5"/>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>11558</v>
       </c>
@@ -11431,8 +13715,16 @@
       <c r="K289" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M289" s="3">
+        <v>248</v>
+      </c>
+      <c r="N289" s="3">
+        <v>196</v>
+      </c>
+      <c r="P289" s="5"/>
+      <c r="Q289" s="5"/>
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>11559</v>
       </c>
@@ -11466,8 +13758,16 @@
       <c r="K290" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M290" s="3">
+        <v>169</v>
+      </c>
+      <c r="N290" s="3">
+        <v>150</v>
+      </c>
+      <c r="P290" s="5"/>
+      <c r="Q290" s="5"/>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>11587</v>
       </c>
@@ -11501,8 +13801,16 @@
       <c r="K291" s="2">
         <v>67.5</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M291" s="3">
+        <v>286</v>
+      </c>
+      <c r="N291" s="3">
+        <v>279</v>
+      </c>
+      <c r="P291" s="5"/>
+      <c r="Q291" s="5"/>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>11588</v>
       </c>
@@ -11536,6 +13844,14 @@
       <c r="K292" s="2">
         <v>84.5</v>
       </c>
+      <c r="M292" s="3">
+        <v>120</v>
+      </c>
+      <c r="N292" s="3">
+        <v>76</v>
+      </c>
+      <c r="P292" s="5"/>
+      <c r="Q292" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
